--- a/aplicacionesDistribuidas/PEA 2023-2 APLICACIONES DISTRIBUIDAS corregido.xlsx
+++ b/aplicacionesDistribuidas/PEA 2023-2 APLICACIONES DISTRIBUIDAS corregido.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personBGCC\ITSJAPON\scriptsBaseDeDatos\aplicacionesDistribuidas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codeSource\scriptsBaseDeDatos\aplicacionesDistribuidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39AF592-90E5-485D-9EB9-6F7E5785FF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A682F9E-984D-4C99-9872-49C3FFE429D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="246">
   <si>
     <t>PEA APLICACIONES DISTRIBUIDAS</t>
   </si>
@@ -432,10 +432,6 @@
     <t>Computación distribuida y la nube</t>
   </si>
   <si>
-    <t>Clase magistral
-Establecimiento de parámetros para el diseño de presentación sobre el entorno de las aplicaciones distribuidas en la nube.</t>
-  </si>
-  <si>
     <t>PAO
 Microsoft Teams
 Plataformas multimedia
@@ -446,11 +442,6 @@
     <t>Seguridad</t>
   </si>
   <si>
-    <t xml:space="preserve">Clase magistral
-Diseño de actividades interactivas
-</t>
-  </si>
-  <si>
     <t>PAO
 Microsoft Teams
 Plataformas multimedia
@@ -470,11 +461,6 @@
     <t>Interfaz de usuario en aplicaciones distribuidas</t>
   </si>
   <si>
-    <t>Clase magistral
-Organización de contenido en PAO 
-Gestión de contenido digital</t>
-  </si>
-  <si>
     <t>PAO
 Microsoft Temas
 Presentación
@@ -498,22 +484,11 @@
 Diseño de instrumentos de evaluación</t>
   </si>
   <si>
-    <t>PAO
-Microsoft Temas
-Presentación
-Actividades
-Libro digital</t>
-  </si>
-  <si>
     <t>Capa de procesamiento de datos</t>
   </si>
   <si>
     <t xml:space="preserve"> - Metodologías de configuración de bases de datos distribuidas.                        
 - Arquitectura de los SGBD distribuidos.</t>
-  </si>
-  <si>
-    <t>Clase magistral
-Construcción de recursos didácticos.</t>
   </si>
   <si>
     <t>PAO
@@ -534,11 +509,6 @@
   </si>
   <si>
     <t>Integra los sistemas heredados dentro del ambiente distribuido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clase magistral
-Diseño de recursos audiovisuales
-</t>
   </si>
   <si>
     <t>PAO
@@ -571,9 +541,6 @@
 Establecimiento de parámetros para el diseño de presentación en las tareas a desarrollar por los estudiantes.</t>
   </si>
   <si>
-    <t>Trabajo Autónomo Investigación de : Distribución de elementos de una aplicación en ambiente distribuido.</t>
-  </si>
-  <si>
     <t>Evaluación II</t>
   </si>
   <si>
@@ -581,9 +548,6 @@
   </si>
   <si>
     <t>Realiza la integración de tecnología en ambientes heterogéneos y homogéneos</t>
-  </si>
-  <si>
-    <t>Trabajo Autónomo Investigación de : Integración de tecnologías heterogéneas y homogéneas.</t>
   </si>
   <si>
     <t>Servicios de la arquitectura (email, web, base datos, aplicaciones, transacciones, sistemas operativos, firewall)</t>
@@ -598,9 +562,6 @@
     <t>Analiza los servicios de arquitectura requeridos para un ambiente distribuido</t>
   </si>
   <si>
-    <t>Trabajo Autónomo Investigación de : Servicios de la arquitectura en aplicaciones distribuidas.</t>
-  </si>
-  <si>
     <t>Diseño e implementación de manejo de datos</t>
   </si>
   <si>
@@ -613,9 +574,6 @@
     <t>Contextualiza de forma general el diseño e implementación de manejo de datos</t>
   </si>
   <si>
-    <t>Trabajo Autónomo Investigación de : Diseño de implementación de manejo de datos.</t>
-  </si>
-  <si>
     <t>Unidad 4: DISEÑO DE APLICACIONES DISTRIBUIDAS</t>
   </si>
   <si>
@@ -628,9 +586,6 @@
   </si>
   <si>
     <t>Realiza el diseño de un ambiente distribuido para procesamiento de datos</t>
-  </si>
-  <si>
-    <t>Trabajo Autónomo Práctica sobre diseño de procesamiento de datos.</t>
   </si>
   <si>
     <t>PAO
@@ -654,9 +609,6 @@
     <t>Realiza el diseño de la UI para un ambiente distribuido</t>
   </si>
   <si>
-    <t>Trabajo Autónomo Investigación de : Práctica sobre el diseño de interfaz de usuario.</t>
-  </si>
-  <si>
     <t>Implementación de procesamientos de datos</t>
   </si>
   <si>
@@ -671,9 +623,6 @@
     <t>Ejecuta el procesamiento de datos en ambiente distribuido</t>
   </si>
   <si>
-    <t>Trabajo Autónomo Investigación de : Práctica sobre implementación de procesamiento de datos.</t>
-  </si>
-  <si>
     <t>Implementación de una interfaz de usuario</t>
   </si>
   <si>
@@ -683,9 +632,6 @@
   </si>
   <si>
     <t>Ejemplifica la implementación de una UI en ambiente distribuido</t>
-  </si>
-  <si>
-    <t>Trabajo Autónomo Investigación de : Práctica sobre Implementación de una interfaz de usuario.</t>
   </si>
   <si>
     <t>Entrega de proyecto final</t>
@@ -700,9 +646,6 @@
   </si>
   <si>
     <t>Ejemplifica la integración de aplicaciones distribuidas</t>
-  </si>
-  <si>
-    <t>Trabajo Autónomo Investigación de : Práctica sobre Integración de aplicaciones distribuidas.</t>
   </si>
   <si>
     <t>Plataforma ModdlePlataforma TeamsProcesador de textoVideos , Presentaciones Documentos PDFLibros digitales</t>
@@ -1104,11 +1047,6 @@
     <t>A7. Desarrollo de las actividades de forma individual. Actividad: Subir Ejercicio Propuestos en PAO</t>
   </si>
   <si>
-    <t>Clase magistral
-Construcción de recursos didácticos.
-Diseño de recursos audiovisuales.</t>
-  </si>
-  <si>
     <t>Con los estudiantes se diseña el modelo arquitectonico y  la implementacion  sobre aplicaciones distribuidas y su interconectividad en varios escenarios.</t>
   </si>
   <si>
@@ -1170,18 +1108,80 @@
     <t xml:space="preserve">EL estudiante analiza mediante mapas mentales los conceptos fundamentales de aplicaciones distribuidas </t>
   </si>
   <si>
-    <t xml:space="preserve">Clase magistral
-Clase participativa sobre patrones arquitectonicos para seguridad de servicios APIs
+    <t>El estudiante replica la clase demostrativa para implementar el patron repository en los demas servicios a utilizar en el caso de estudio propuesto.</t>
+  </si>
+  <si>
+    <t>El estudiante realiza las prespectivas pruebas para consumir los servicios Apis desde clientes externos como postman</t>
+  </si>
+  <si>
+    <t>El estudiante realiza las conexiones con los diferentes motores de base de datos y crea los diferentes modelos de datos a consumir con las APIS</t>
+  </si>
+  <si>
+    <t>El estudiante desarrolla APIs para realizar CRUDs con la base de datos</t>
+  </si>
+  <si>
+    <t>El estudiante realiza la dockerización de los servicios desarrollados.</t>
+  </si>
+  <si>
+    <t>El estudiante implementa en un servicio API el patrón circuit brake para validar la tolerancia a fallos en servicios asincronos.</t>
+  </si>
+  <si>
+    <t>El estudiante implementa el patrón Api Gateway para proporcionar acceso seguro a los servicios mediante una API REST</t>
+  </si>
+  <si>
+    <t>El estudiante realiza la configuración de ambientes local, docker y api gateway en la herramienta postman para consumir APIs en varios ambientes</t>
+  </si>
+  <si>
+    <t>El estudiante configura un ambiente cloud para los servicios APIs y la comunicaciónmediante los patrones arquitectonicos estudiados.</t>
+  </si>
+  <si>
+    <t>Clase magistral,  exposicion y taller guiado, en el proceso de  instalación de las herramientas IDE</t>
+  </si>
+  <si>
+    <t>Exposición y taller sobre conceptos de computación distribuida, paradigmas y patrones arquitectonicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clase participativa sobre patrones arquitectonicos para seguridad de servicios APIs
 </t>
   </si>
   <si>
-    <t>El esudiante realiza las conexiones y crea los diferentes modelos de datos a implementar con las Apis</t>
-  </si>
-  <si>
-    <t>El estudiante replica la clase demostrativa para implementar el patron repository en los demas servicios a utilizar en el caso de estudio propuesto.</t>
-  </si>
-  <si>
-    <t>El estudiante realiza las prespectivas pruebas para consumir los servicios Apis desde clientes externos como postman</t>
+    <t xml:space="preserve">Clase práctica de instalación de SGBD distribuidas  usando herramientas distribuitivas (docker)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clase práctica de instalación de SGBD distribuidas  usando herramientas distribuitivas (docker)  y desarrollo de servicios asincronos
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clase magistral desarrollar servicios web get, post, put, delete
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clase magistral exposición de patrones arquitectonicos para comunicación entre servicios APIs
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clase magistral exposición y desarrollo de aplicaciones distribuidas para la comunicación asincrona
+</t>
+  </si>
+  <si>
+    <t>Clase magistral desarrollo de interfaces de usuario para consumir los microservicios Apis desde varios clientes OpenApi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clase magistral  implementación de microservicios integrando patrones de comunicación
+</t>
+  </si>
+  <si>
+    <t>Clase magistral implementación de microservicios integrando con el patrón puerta enlace ApiGateway</t>
+  </si>
+  <si>
+    <t>Clase magistral creación ambiente cloud.</t>
+  </si>
+  <si>
+    <t>SGA, PAO, Office 365, Correo electrónico institucional, almacenamiento en la nube, Visual Studio, Docker, Postman</t>
+  </si>
+  <si>
+    <t>SGA, PAO, Office 365, Correo electrónico institucional, almacenamiento en la nube, MySql, SqlServer, Postgress, Visual Studio, Netcore, Python</t>
   </si>
 </sst>
 </file>
@@ -1683,11 +1683,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1695,173 +1773,155 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1871,155 +1931,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2383,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A51" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51:L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2409,726 +2409,726 @@
       <c r="B1"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="105"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="110" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="73" t="s">
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="107" t="s">
-        <v>186</v>
-      </c>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="108"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="73" t="s">
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="109"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="73" t="s">
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="109"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="93"/>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="111" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="73" t="s">
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="109"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="93"/>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="111">
+      <c r="B9" s="40"/>
+      <c r="C9" s="95">
         <v>96</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="73" t="s">
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="73"/>
-      <c r="J9" s="50">
+      <c r="I9" s="40"/>
+      <c r="J9" s="92">
         <v>2</v>
       </c>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="109"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="93"/>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="113"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="97"/>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="60"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="82"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="85"/>
     </row>
     <row r="13" spans="1:13" s="6" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="75" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="76"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="89"/>
     </row>
     <row r="14" spans="1:13" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="82"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="85"/>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="88" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="89"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="108"/>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="82"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="85"/>
     </row>
     <row r="17" spans="1:13" s="6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="76"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="82"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="85"/>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="57" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="57"/>
-      <c r="M19" s="82"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="85"/>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="90" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="136" t="s">
+      <c r="A20" s="110" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="136"/>
-      <c r="M20" s="137"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="42"/>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="136" t="s">
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="136"/>
-      <c r="M21" s="137"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="42"/>
     </row>
     <row r="22" spans="1:13" s="5" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="136" t="s">
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="136"/>
-      <c r="M22" s="137"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="42"/>
     </row>
     <row r="23" spans="1:13" s="5" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79" t="s">
+      <c r="B23" s="109"/>
+      <c r="C23" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="80" t="s">
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="109" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="80"/>
-      <c r="M23" s="81"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="119"/>
     </row>
     <row r="24" spans="1:13" s="5" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="138" t="s">
+      <c r="A24" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="139"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="139" t="s">
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
       <c r="K24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="136" t="s">
+      <c r="L24" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="137"/>
+      <c r="M24" s="42"/>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="138"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="140" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="141" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="L25" s="141"/>
-      <c r="M25" s="142"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="49"/>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="125"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="52"/>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="143" t="s">
+      <c r="A27" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="128"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
     </row>
     <row r="28" spans="1:13" s="5" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="123" t="s">
+      <c r="A28" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="125"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="126" t="s">
+      <c r="A29" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="128"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="55"/>
     </row>
     <row r="30" spans="1:13" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="129" t="s">
+      <c r="A30" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="131"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="64"/>
     </row>
     <row r="31" spans="1:13" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57" t="s">
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
       <c r="J31" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K31" s="57" t="s">
+      <c r="K31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="L31" s="57"/>
+      <c r="L31" s="43"/>
       <c r="M31" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83">
+      <c r="A32" s="120">
         <v>40</v>
       </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84">
+      <c r="B32" s="44"/>
+      <c r="C32" s="44">
         <v>50</v>
       </c>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84">
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44">
         <v>6</v>
       </c>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
       <c r="J32" s="11">
         <v>96</v>
       </c>
-      <c r="K32" s="84">
+      <c r="K32" s="44">
         <v>2</v>
       </c>
-      <c r="L32" s="84"/>
+      <c r="L32" s="44"/>
       <c r="M32" s="24">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="60"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="70"/>
     </row>
     <row r="34" spans="1:14" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57" t="s">
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="57"/>
-      <c r="M34" s="82"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="85"/>
     </row>
     <row r="35" spans="1:14" ht="194.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="80" t="s">
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="L35" s="94"/>
-      <c r="M35" s="95"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="100"/>
     </row>
     <row r="36" spans="1:14" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="98"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="103"/>
     </row>
     <row r="37" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="99" t="s">
+      <c r="A37" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="100" t="s">
+      <c r="B37" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="101" t="s">
+      <c r="C37" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="102" t="s">
+      <c r="D37" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="101" t="s">
+      <c r="E37" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="100" t="s">
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="M37" s="132" t="s">
+      <c r="M37" s="66" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="99"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="102"/>
+      <c r="A38" s="104"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="105"/>
       <c r="E38" s="15" t="s">
         <v>68</v>
       </c>
@@ -3150,1100 +3150,1100 @@
       <c r="K38" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="L38" s="100"/>
-      <c r="M38" s="132"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="66"/>
     </row>
     <row r="39" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="39"/>
-    </row>
-    <row r="40" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40">
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="117"/>
+    </row>
+    <row r="40" spans="1:14" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="57">
         <v>1</v>
       </c>
-      <c r="B40" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>197</v>
+      <c r="B40" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G40" s="32">
+        <v>233</v>
+      </c>
+      <c r="G40" s="58">
         <v>1</v>
       </c>
       <c r="H40" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I40" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="I40" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="K40" s="13">
         <v>0.5</v>
       </c>
-      <c r="L40" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="M40" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="30">
+      <c r="L40" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="M40" s="37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="57"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="38">
         <v>45353</v>
       </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="32"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="27">
         <f>E41</f>
         <v>45353</v>
       </c>
-      <c r="I41" s="33"/>
+      <c r="I41" s="59"/>
       <c r="J41" s="27">
         <f>H41</f>
         <v>45353</v>
       </c>
       <c r="K41" s="14"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="31"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="37"/>
     </row>
     <row r="42" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40">
+      <c r="A42" s="57">
         <v>2</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>76</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="32">
+        <v>232</v>
+      </c>
+      <c r="G42" s="58">
         <v>1</v>
       </c>
       <c r="H42" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I42" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="I42" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="K42" s="13">
         <v>0.5</v>
       </c>
-      <c r="L42" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="M42" s="31" t="s">
-        <v>202</v>
+      <c r="L42" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="M42" s="37" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="30">
+      <c r="A43" s="57"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="38">
         <f>E41</f>
         <v>45353</v>
       </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="32"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="58"/>
       <c r="H43" s="27">
         <f>E43</f>
         <v>45353</v>
       </c>
-      <c r="I43" s="33"/>
+      <c r="I43" s="59"/>
       <c r="J43" s="27">
         <f>H43</f>
         <v>45353</v>
       </c>
       <c r="K43" s="14"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="31"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="37"/>
     </row>
     <row r="44" spans="1:14" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="40">
+      <c r="A44" s="57">
         <v>4</v>
       </c>
-      <c r="B44" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="D44" s="35" t="s">
+      <c r="B44" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G44" s="32">
+        <v>234</v>
+      </c>
+      <c r="G44" s="58">
         <v>1</v>
       </c>
       <c r="H44" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="I44" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="K44" s="13">
         <v>0.5</v>
       </c>
-      <c r="L44" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="M44" s="31" t="s">
-        <v>203</v>
+      <c r="L44" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="M44" s="37" t="s">
+        <v>188</v>
       </c>
       <c r="N44" s="8"/>
     </row>
     <row r="45" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="30">
+      <c r="A45" s="57"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="38">
         <f>E43</f>
         <v>45353</v>
       </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="32"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="58"/>
       <c r="H45" s="27">
         <f>E45</f>
         <v>45353</v>
       </c>
-      <c r="I45" s="33"/>
+      <c r="I45" s="59"/>
       <c r="J45" s="27">
         <f>H45</f>
         <v>45353</v>
       </c>
       <c r="K45" s="14"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="31"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="37"/>
     </row>
     <row r="46" spans="1:14" ht="25.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="117"/>
+    </row>
+    <row r="47" spans="1:14" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="57">
+        <v>5</v>
+      </c>
+      <c r="B47" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="39"/>
-    </row>
-    <row r="47" spans="1:14" ht="96" x14ac:dyDescent="0.3">
-      <c r="A47" s="40">
-        <v>5</v>
-      </c>
-      <c r="B47" s="34" t="s">
+      <c r="D47" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="F47" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" s="32">
+        <v>234</v>
+      </c>
+      <c r="G47" s="58">
         <v>1</v>
       </c>
       <c r="H47" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I47" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="J47" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="I47" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="K47" s="13">
         <v>0.5</v>
       </c>
-      <c r="L47" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="M47" s="31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="30">
+      <c r="L47" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="M47" s="37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="57"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="38">
         <f>E45</f>
         <v>45353</v>
       </c>
-      <c r="F48" s="30"/>
-      <c r="G48" s="32"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="58"/>
       <c r="H48" s="27">
         <f>E48</f>
         <v>45353</v>
       </c>
-      <c r="I48" s="33"/>
+      <c r="I48" s="59"/>
       <c r="J48" s="27">
         <f>E48</f>
         <v>45353</v>
       </c>
       <c r="K48" s="14"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="31"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="37"/>
     </row>
     <row r="49" spans="1:13" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="40">
+      <c r="A49" s="57">
         <v>6</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G49" s="32">
+      <c r="G49" s="58">
         <v>1</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="I49" s="32">
+        <v>207</v>
+      </c>
+      <c r="I49" s="58">
         <v>0.8</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="K49" s="13">
         <v>0.5</v>
       </c>
-      <c r="L49" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="M49" s="31" t="s">
-        <v>206</v>
+      <c r="L49" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="M49" s="37" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="30">
+      <c r="A50" s="57"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="38">
         <f>E48+7</f>
         <v>45360</v>
       </c>
-      <c r="F50" s="30"/>
-      <c r="G50" s="32"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="58"/>
       <c r="H50" s="27">
         <f>E50</f>
         <v>45360</v>
       </c>
-      <c r="I50" s="33"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="27">
         <f>H50</f>
         <v>45360</v>
       </c>
       <c r="K50" s="14"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="31"/>
-    </row>
-    <row r="51" spans="1:13" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="40">
+      <c r="L50" s="36"/>
+      <c r="M50" s="37"/>
+    </row>
+    <row r="51" spans="1:13" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="57">
         <v>7</v>
       </c>
-      <c r="B51" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="35" t="s">
+      <c r="B51" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G51" s="32">
+        <v>235</v>
+      </c>
+      <c r="G51" s="58">
         <v>1</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="I51" s="32">
+        <v>208</v>
+      </c>
+      <c r="I51" s="58">
         <v>0.8</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="K51" s="13">
         <v>0.5</v>
       </c>
-      <c r="L51" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="M51" s="31" t="s">
-        <v>207</v>
+      <c r="L51" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="M51" s="37" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="30">
+      <c r="A52" s="57"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="38">
         <f>E50</f>
         <v>45360</v>
       </c>
-      <c r="F52" s="30"/>
-      <c r="G52" s="32"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="58"/>
       <c r="H52" s="27">
         <f>E52</f>
         <v>45360</v>
       </c>
-      <c r="I52" s="33"/>
+      <c r="I52" s="59"/>
       <c r="J52" s="27">
         <f>H52</f>
         <v>45360</v>
       </c>
       <c r="K52" s="14"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="31"/>
-    </row>
-    <row r="53" spans="1:13" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="40">
+      <c r="L52" s="36"/>
+      <c r="M52" s="37"/>
+    </row>
+    <row r="53" spans="1:13" ht="108" x14ac:dyDescent="0.3">
+      <c r="A53" s="57">
         <v>8</v>
       </c>
-      <c r="B53" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="35" t="s">
+      <c r="B53" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G53" s="32">
+        <v>236</v>
+      </c>
+      <c r="G53" s="58">
         <v>1</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="I53" s="32">
+        <v>209</v>
+      </c>
+      <c r="I53" s="58">
         <v>0.8</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="K53" s="13">
         <v>0.5</v>
       </c>
-      <c r="L53" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="M53" s="31" t="s">
-        <v>208</v>
+      <c r="L53" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="M53" s="37" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="30">
+      <c r="A54" s="57"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="38">
         <f>E52</f>
         <v>45360</v>
       </c>
-      <c r="F54" s="30"/>
-      <c r="G54" s="32"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="58"/>
       <c r="H54" s="27">
         <f>E54</f>
         <v>45360</v>
       </c>
-      <c r="I54" s="33"/>
+      <c r="I54" s="59"/>
       <c r="J54" s="27">
         <f>H54</f>
         <v>45360</v>
       </c>
       <c r="K54" s="14"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="31"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="37"/>
     </row>
     <row r="55" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="39"/>
+      <c r="A55" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116"/>
+      <c r="M55" s="117"/>
     </row>
     <row r="56" spans="1:13" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="40">
+      <c r="A56" s="57">
         <v>9</v>
       </c>
-      <c r="B56" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="35" t="s">
+      <c r="B56" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G56" s="32">
+        <v>100</v>
+      </c>
+      <c r="G56" s="58">
         <v>1</v>
       </c>
       <c r="H56" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I56" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="J56" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="I56" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="K56" s="13">
         <v>0.5</v>
       </c>
-      <c r="L56" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="M56" s="31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="30">
+      <c r="L56" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="M56" s="37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="57"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="38">
         <f>E54</f>
         <v>45360</v>
       </c>
-      <c r="F57" s="30"/>
-      <c r="G57" s="32"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="58"/>
       <c r="H57" s="27">
         <f>E57</f>
         <v>45360</v>
       </c>
-      <c r="I57" s="33"/>
+      <c r="I57" s="59"/>
       <c r="J57" s="27">
         <f>H57</f>
         <v>45360</v>
       </c>
       <c r="K57" s="14"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="31"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="37"/>
     </row>
     <row r="58" spans="1:13" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="40">
+      <c r="A58" s="57">
         <v>10</v>
       </c>
-      <c r="B58" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="35" t="s">
+      <c r="B58" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" s="32">
+        <v>237</v>
+      </c>
+      <c r="G58" s="58">
         <v>1</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="I58" s="32">
+        <v>211</v>
+      </c>
+      <c r="I58" s="58">
         <v>0.8</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="K58" s="13">
         <v>0.5</v>
       </c>
-      <c r="L58" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="M58" s="31" t="s">
-        <v>210</v>
+      <c r="L58" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M58" s="37" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="30">
+      <c r="A59" s="57"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="38">
         <f>E57</f>
         <v>45360</v>
       </c>
-      <c r="F59" s="30"/>
-      <c r="G59" s="32"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="58"/>
       <c r="H59" s="27">
         <f>E59</f>
         <v>45360</v>
       </c>
-      <c r="I59" s="33"/>
+      <c r="I59" s="59"/>
       <c r="J59" s="27">
         <f>H59</f>
         <v>45360</v>
       </c>
       <c r="K59" s="14"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="31"/>
-    </row>
-    <row r="60" spans="1:13" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="119">
+      <c r="L59" s="36"/>
+      <c r="M59" s="37"/>
+    </row>
+    <row r="60" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+      <c r="A60" s="30">
         <v>11</v>
       </c>
-      <c r="B60" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>195</v>
+      <c r="B60" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G60" s="121">
+        <v>238</v>
+      </c>
+      <c r="G60" s="33">
         <v>1</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="I60" s="32">
+        <v>213</v>
+      </c>
+      <c r="I60" s="58">
         <v>0.8</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K60" s="121">
+        <v>227</v>
+      </c>
+      <c r="K60" s="33">
         <v>0.5</v>
       </c>
-      <c r="L60" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="M60" s="31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="120"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="30">
+      <c r="L60" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="M60" s="37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="31"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="38">
         <f>E59+7</f>
         <v>45367</v>
       </c>
-      <c r="F61" s="30"/>
-      <c r="G61" s="122"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="34"/>
       <c r="H61" s="27">
         <f>E61</f>
         <v>45367</v>
       </c>
-      <c r="I61" s="33"/>
+      <c r="I61" s="59"/>
       <c r="J61" s="27">
         <f>H61</f>
         <v>45367</v>
       </c>
-      <c r="K61" s="122"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="31"/>
-    </row>
-    <row r="62" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="40">
+      <c r="K61" s="34"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="37"/>
+    </row>
+    <row r="62" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+      <c r="A62" s="57">
         <v>12</v>
       </c>
-      <c r="B62" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>195</v>
+      <c r="B62" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G62" s="32">
+        <v>238</v>
+      </c>
+      <c r="G62" s="58">
         <v>1</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="I62" s="32">
+        <v>212</v>
+      </c>
+      <c r="I62" s="58">
         <v>1</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c r="K62" s="13">
         <v>0.5</v>
       </c>
-      <c r="L62" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="M62" s="31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="30">
+      <c r="L62" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="M62" s="37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="57"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="38">
         <f>E61</f>
         <v>45367</v>
       </c>
-      <c r="F63" s="30"/>
-      <c r="G63" s="32"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="58"/>
       <c r="H63" s="27">
         <f>E63</f>
         <v>45367</v>
       </c>
-      <c r="I63" s="33"/>
+      <c r="I63" s="59"/>
       <c r="J63" s="27">
         <f>H63</f>
         <v>45367</v>
       </c>
       <c r="K63" s="14"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="31"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="37"/>
     </row>
     <row r="64" spans="1:13" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="39"/>
-    </row>
-    <row r="65" spans="1:13" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="119">
+      <c r="A64" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="116"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
+      <c r="E64" s="116"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="116"/>
+      <c r="I64" s="116"/>
+      <c r="J64" s="116"/>
+      <c r="K64" s="116"/>
+      <c r="L64" s="116"/>
+      <c r="M64" s="117"/>
+    </row>
+    <row r="65" spans="1:13" ht="96" x14ac:dyDescent="0.3">
+      <c r="A65" s="30">
         <v>13</v>
       </c>
-      <c r="B65" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>195</v>
+      <c r="B65" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G65" s="121">
+        <v>239</v>
+      </c>
+      <c r="G65" s="33">
         <v>2</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I65" s="121">
+        <v>214</v>
+      </c>
+      <c r="I65" s="33">
         <v>1</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K65" s="121">
+        <v>227</v>
+      </c>
+      <c r="K65" s="33">
         <v>1</v>
       </c>
-      <c r="L65" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="M65" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="120"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="30">
+      <c r="L65" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="M65" s="37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="31"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="38">
         <f>E63</f>
         <v>45367</v>
       </c>
-      <c r="F66" s="30"/>
-      <c r="G66" s="122"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="34"/>
       <c r="H66" s="27">
         <f>E66</f>
         <v>45367</v>
       </c>
-      <c r="I66" s="122"/>
+      <c r="I66" s="34"/>
       <c r="J66" s="27">
         <f>H66</f>
         <v>45367</v>
       </c>
-      <c r="K66" s="122"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="31"/>
-    </row>
-    <row r="67" spans="1:13" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="120"/>
-      <c r="B67" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="35" t="s">
+      <c r="K66" s="34"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="37"/>
+    </row>
+    <row r="67" spans="1:13" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="31"/>
+      <c r="B67" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G67" s="122"/>
+        <v>240</v>
+      </c>
+      <c r="G67" s="34"/>
       <c r="H67" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="I67" s="122"/>
+        <v>215</v>
+      </c>
+      <c r="I67" s="34"/>
       <c r="J67" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K67" s="133"/>
-      <c r="L67" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="M67" s="31" t="s">
-        <v>214</v>
+        <v>230</v>
+      </c>
+      <c r="K67" s="35"/>
+      <c r="L67" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="M67" s="37" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="135"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="30">
+      <c r="A68" s="32"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="38">
         <f>E66+7</f>
         <v>45374</v>
       </c>
-      <c r="F68" s="30"/>
-      <c r="G68" s="133"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="35"/>
       <c r="H68" s="27">
         <f>E68</f>
         <v>45374</v>
       </c>
-      <c r="I68" s="133"/>
+      <c r="I68" s="35"/>
       <c r="J68" s="27">
         <f>H68</f>
         <v>45374</v>
       </c>
       <c r="K68" s="14"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="31"/>
-    </row>
-    <row r="69" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="40">
+      <c r="L68" s="36"/>
+      <c r="M68" s="37"/>
+    </row>
+    <row r="69" spans="1:13" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="57">
         <v>14</v>
       </c>
-      <c r="B69" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="35" t="s">
+      <c r="B69" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" s="32">
+        <v>241</v>
+      </c>
+      <c r="G69" s="58">
         <v>3</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="I69" s="32">
+        <v>216</v>
+      </c>
+      <c r="I69" s="58">
         <v>1</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="K69" s="13">
         <v>0.5</v>
       </c>
-      <c r="L69" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="M69" s="31" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="40"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="30">
+      <c r="L69" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="M69" s="37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="57"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="38">
         <f>E68</f>
         <v>45374</v>
       </c>
-      <c r="F70" s="30"/>
-      <c r="G70" s="32"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="58"/>
       <c r="H70" s="27">
         <f>E70</f>
         <v>45374</v>
       </c>
-      <c r="I70" s="33"/>
+      <c r="I70" s="59"/>
       <c r="J70" s="27">
         <f>H70</f>
         <v>45374</v>
       </c>
       <c r="K70" s="14"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="31"/>
-    </row>
-    <row r="71" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="134">
+      <c r="L70" s="36"/>
+      <c r="M70" s="37"/>
+    </row>
+    <row r="71" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+      <c r="A71" s="60">
         <v>15</v>
       </c>
-      <c r="B71" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D71" s="35" t="s">
+      <c r="B71" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" s="121">
+        <v>242</v>
+      </c>
+      <c r="G71" s="33">
         <v>4</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="I71" s="121">
+        <v>217</v>
+      </c>
+      <c r="I71" s="33">
         <v>1</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K71" s="121">
+        <v>229</v>
+      </c>
+      <c r="K71" s="33">
         <v>1</v>
       </c>
-      <c r="L71" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="M71" s="31" t="s">
-        <v>216</v>
+      <c r="L71" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="M71" s="37" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="134"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="30">
+      <c r="A72" s="60"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="38">
         <f>E70+14</f>
         <v>45388</v>
       </c>
-      <c r="F72" s="30"/>
-      <c r="G72" s="122"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="34"/>
       <c r="H72" s="27">
         <f>E72</f>
         <v>45388</v>
       </c>
-      <c r="I72" s="122"/>
+      <c r="I72" s="34"/>
       <c r="J72" s="27">
         <f>H72</f>
         <v>45388</v>
       </c>
-      <c r="K72" s="122"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="31"/>
-    </row>
-    <row r="73" spans="1:13" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="134">
+      <c r="K72" s="34"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="37"/>
+    </row>
+    <row r="73" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="60">
         <v>16</v>
       </c>
-      <c r="B73" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="35" t="s">
+      <c r="B73" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G73" s="122"/>
+        <v>243</v>
+      </c>
+      <c r="G73" s="34"/>
       <c r="H73" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="I73" s="122"/>
+        <v>218</v>
+      </c>
+      <c r="I73" s="34"/>
       <c r="J73" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K73" s="133"/>
-      <c r="L73" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="M73" s="31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="134"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="30">
+        <v>231</v>
+      </c>
+      <c r="K73" s="35"/>
+      <c r="L73" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="M73" s="37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="60"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="38">
         <f>E72</f>
         <v>45388</v>
       </c>
-      <c r="F74" s="30"/>
-      <c r="G74" s="133"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="35"/>
       <c r="H74" s="27">
         <f>E74</f>
         <v>45388</v>
       </c>
-      <c r="I74" s="133"/>
+      <c r="I74" s="35"/>
       <c r="J74" s="27">
         <f>H74</f>
         <v>45388</v>
       </c>
       <c r="K74" s="14"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="31"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="37"/>
     </row>
     <row r="75" spans="1:13" s="2" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25"/>
@@ -4252,28 +4252,28 @@
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
       <c r="F75" s="19" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G75" s="19">
         <f>SUM(G40:G74)</f>
         <v>20</v>
       </c>
       <c r="H75" s="19" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="I75" s="20">
         <f>SUM(I40:I74)</f>
         <v>12</v>
       </c>
       <c r="J75" s="19" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K75" s="21">
         <f>SUM(K40:K45,K47:K53,K56:K62,K65:K69,K71:K73)</f>
         <v>8</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M75" s="26">
         <f>G75+I75+K75</f>
@@ -4281,486 +4281,742 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="B76" s="59"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="60"/>
+      <c r="A76" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="69"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
+      <c r="M76" s="70"/>
     </row>
     <row r="77" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="114" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
-      <c r="G77" s="115" t="s">
-        <v>149</v>
-      </c>
-      <c r="H77" s="51"/>
-      <c r="I77" s="51"/>
-      <c r="J77" s="51"/>
-      <c r="K77" s="51"/>
-      <c r="L77" s="51"/>
-      <c r="M77" s="52"/>
+      <c r="A77" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="H77" s="75"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="77"/>
     </row>
     <row r="78" spans="1:13" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="118" t="s">
+      <c r="A78" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="F78" s="118"/>
-      <c r="G78" s="116" t="s">
-        <v>151</v>
-      </c>
-      <c r="H78" s="116"/>
-      <c r="I78" s="116"/>
-      <c r="J78" s="116"/>
-      <c r="K78" s="116"/>
-      <c r="L78" s="116"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="H78" s="78"/>
+      <c r="I78" s="78"/>
+      <c r="J78" s="78"/>
+      <c r="K78" s="78"/>
+      <c r="L78" s="78"/>
       <c r="M78" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="118" t="s">
+      <c r="A79" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="73"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="F79" s="118"/>
-      <c r="G79" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="H79" s="116"/>
-      <c r="I79" s="116"/>
-      <c r="J79" s="116"/>
-      <c r="K79" s="116"/>
-      <c r="L79" s="116"/>
-      <c r="M79" s="117" t="s">
+      <c r="F79" s="80"/>
+      <c r="G79" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="H79" s="78"/>
+      <c r="I79" s="78"/>
+      <c r="J79" s="78"/>
+      <c r="K79" s="78"/>
+      <c r="L79" s="78"/>
+      <c r="M79" s="79" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="118" t="s">
+      <c r="A80" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="73"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="F80" s="118"/>
-      <c r="G80" s="116"/>
-      <c r="H80" s="116"/>
-      <c r="I80" s="116"/>
-      <c r="J80" s="116"/>
-      <c r="K80" s="116"/>
-      <c r="L80" s="116"/>
-      <c r="M80" s="117"/>
+      <c r="F80" s="80"/>
+      <c r="G80" s="78"/>
+      <c r="H80" s="78"/>
+      <c r="I80" s="78"/>
+      <c r="J80" s="78"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="78"/>
+      <c r="M80" s="79"/>
     </row>
     <row r="81" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="118" t="s">
+      <c r="A81" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="73"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="F81" s="118"/>
-      <c r="G81" s="116" t="s">
-        <v>156</v>
-      </c>
-      <c r="H81" s="116"/>
-      <c r="I81" s="116"/>
-      <c r="J81" s="116"/>
-      <c r="K81" s="116"/>
-      <c r="L81" s="116"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="H81" s="78"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="78"/>
+      <c r="K81" s="78"/>
+      <c r="L81" s="78"/>
       <c r="M81" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="118" t="s">
+      <c r="A82" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" s="73"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="F82" s="118"/>
-      <c r="G82" s="116" t="s">
-        <v>158</v>
-      </c>
-      <c r="H82" s="116"/>
-      <c r="I82" s="116"/>
-      <c r="J82" s="116"/>
-      <c r="K82" s="116"/>
-      <c r="L82" s="116"/>
+      <c r="F82" s="80"/>
+      <c r="G82" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="H82" s="78"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="78"/>
+      <c r="K82" s="78"/>
+      <c r="L82" s="78"/>
       <c r="M82" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="64" t="s">
+      <c r="A83" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="73"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" s="80"/>
+      <c r="G83" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="H83" s="78"/>
+      <c r="I83" s="78"/>
+      <c r="J83" s="78"/>
+      <c r="K83" s="78"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" s="73"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" s="80"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="78"/>
+      <c r="I84" s="78"/>
+      <c r="J84" s="78"/>
+      <c r="K84" s="78"/>
+      <c r="L84" s="78"/>
+      <c r="M84" s="79"/>
+    </row>
+    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="69"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="69"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="69"/>
+      <c r="M85" s="70"/>
+    </row>
+    <row r="86" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86" s="75"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="75"/>
+      <c r="L86" s="75"/>
+      <c r="M86" s="77"/>
+    </row>
+    <row r="87" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="130"/>
+      <c r="C87" s="130"/>
+      <c r="D87" s="130"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="130"/>
+      <c r="G87" s="130"/>
+      <c r="H87" s="131" t="s">
+        <v>151</v>
+      </c>
+      <c r="I87" s="132"/>
+      <c r="J87" s="132"/>
+      <c r="K87" s="132"/>
+      <c r="L87" s="132"/>
+      <c r="M87" s="133"/>
+    </row>
+    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="69"/>
+      <c r="M88" s="70"/>
+    </row>
+    <row r="89" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="125" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="126"/>
+      <c r="C89" s="127" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="I89" s="75"/>
+      <c r="J89" s="75"/>
+      <c r="K89" s="75"/>
+      <c r="L89" s="75"/>
+      <c r="M89" s="77"/>
+    </row>
+    <row r="90" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="125" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="126"/>
+      <c r="C90" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" s="92"/>
+      <c r="E90" s="92"/>
+      <c r="F90" s="92"/>
+      <c r="G90" s="92"/>
+      <c r="H90" s="131" t="s">
+        <v>157</v>
+      </c>
+      <c r="I90" s="132"/>
+      <c r="J90" s="132"/>
+      <c r="K90" s="132"/>
+      <c r="L90" s="132"/>
+      <c r="M90" s="133"/>
+    </row>
+    <row r="91" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="125" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" s="126"/>
+      <c r="C91" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="F83" s="118"/>
-      <c r="G83" s="116" t="s">
+      <c r="D91" s="92"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="92"/>
+      <c r="G91" s="92"/>
+      <c r="H91" s="132"/>
+      <c r="I91" s="132"/>
+      <c r="J91" s="132"/>
+      <c r="K91" s="132"/>
+      <c r="L91" s="132"/>
+      <c r="M91" s="133"/>
+    </row>
+    <row r="92" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="H83" s="116"/>
-      <c r="I83" s="116"/>
-      <c r="J83" s="116"/>
-      <c r="K83" s="116"/>
-      <c r="L83" s="116"/>
-      <c r="M83" s="117" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="64" t="s">
+      <c r="B92" s="126"/>
+      <c r="C92" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84" s="118"/>
-      <c r="G84" s="116"/>
-      <c r="H84" s="116"/>
-      <c r="I84" s="116"/>
-      <c r="J84" s="116"/>
-      <c r="K84" s="116"/>
-      <c r="L84" s="116"/>
-      <c r="M84" s="117"/>
-    </row>
-    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="58" t="s">
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="92"/>
+      <c r="H92" s="132"/>
+      <c r="I92" s="132"/>
+      <c r="J92" s="132"/>
+      <c r="K92" s="132"/>
+      <c r="L92" s="132"/>
+      <c r="M92" s="133"/>
+    </row>
+    <row r="93" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="60"/>
-    </row>
-    <row r="86" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="69" t="s">
+      <c r="B93" s="126"/>
+      <c r="C93" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="51" t="s">
+      <c r="D93" s="92"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="92"/>
+      <c r="G93" s="92"/>
+      <c r="H93" s="132"/>
+      <c r="I93" s="132"/>
+      <c r="J93" s="132"/>
+      <c r="K93" s="132"/>
+      <c r="L93" s="132"/>
+      <c r="M93" s="133"/>
+    </row>
+    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="I86" s="51"/>
-      <c r="J86" s="51"/>
-      <c r="K86" s="51"/>
-      <c r="L86" s="51"/>
-      <c r="M86" s="52"/>
-    </row>
-    <row r="87" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="70" t="s">
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="69"/>
+      <c r="I94" s="69"/>
+      <c r="J94" s="69"/>
+      <c r="K94" s="69"/>
+      <c r="L94" s="69"/>
+      <c r="M94" s="70"/>
+    </row>
+    <row r="95" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="B87" s="71"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="71"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="53" t="s">
+      <c r="B95" s="126"/>
+      <c r="C95" s="126" t="s">
         <v>166</v>
       </c>
-      <c r="I87" s="54"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="55"/>
-    </row>
-    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="58" t="s">
+      <c r="D95" s="126"/>
+      <c r="E95" s="126"/>
+      <c r="F95" s="126"/>
+      <c r="G95" s="126"/>
+      <c r="H95" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="B88" s="59"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="60"/>
-    </row>
-    <row r="89" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="61" t="s">
+      <c r="I95" s="126"/>
+      <c r="J95" s="126"/>
+      <c r="K95" s="126"/>
+      <c r="L95" s="126"/>
+      <c r="M95" s="134"/>
+    </row>
+    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="139"/>
+      <c r="B96" s="140"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="92"/>
+      <c r="F96" s="92"/>
+      <c r="G96" s="92"/>
+      <c r="H96" s="141"/>
+      <c r="I96" s="141"/>
+      <c r="J96" s="141"/>
+      <c r="K96" s="141"/>
+      <c r="L96" s="141"/>
+      <c r="M96" s="142"/>
+    </row>
+    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="139"/>
+      <c r="B97" s="140"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="141"/>
+      <c r="I97" s="141"/>
+      <c r="J97" s="141"/>
+      <c r="K97" s="141"/>
+      <c r="L97" s="141"/>
+      <c r="M97" s="142"/>
+    </row>
+    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="139"/>
+      <c r="B98" s="140"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="141"/>
+      <c r="I98" s="141"/>
+      <c r="J98" s="141"/>
+      <c r="K98" s="141"/>
+      <c r="L98" s="141"/>
+      <c r="M98" s="142"/>
+    </row>
+    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="139"/>
+      <c r="B99" s="140"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="92"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="141"/>
+      <c r="I99" s="141"/>
+      <c r="J99" s="141"/>
+      <c r="K99" s="141"/>
+      <c r="L99" s="141"/>
+      <c r="M99" s="142"/>
+    </row>
+    <row r="100" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="135" t="s">
+        <v>181</v>
+      </c>
+      <c r="B100" s="136"/>
+      <c r="C100" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="B89" s="62"/>
-      <c r="C89" s="68" t="s">
-        <v>185</v>
-      </c>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="51" t="s">
+      <c r="D100" s="138"/>
+      <c r="E100" s="138"/>
+      <c r="F100" s="138"/>
+      <c r="G100" s="138"/>
+      <c r="H100" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="I89" s="51"/>
-      <c r="J89" s="51"/>
-      <c r="K89" s="51"/>
-      <c r="L89" s="51"/>
-      <c r="M89" s="52"/>
-    </row>
-    <row r="90" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="B90" s="62"/>
-      <c r="C90" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="I90" s="54"/>
-      <c r="J90" s="54"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="54"/>
-      <c r="M90" s="55"/>
-    </row>
-    <row r="91" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="B91" s="62"/>
-      <c r="C91" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="54"/>
-      <c r="M91" s="55"/>
-    </row>
-    <row r="92" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="B92" s="62"/>
-      <c r="C92" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="54"/>
-      <c r="M92" s="55"/>
-    </row>
-    <row r="93" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="B93" s="62"/>
-      <c r="C93" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="54"/>
-      <c r="J93" s="54"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="54"/>
-      <c r="M93" s="55"/>
-    </row>
-    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="B94" s="59"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="59"/>
-      <c r="F94" s="59"/>
-      <c r="G94" s="59"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59"/>
-      <c r="K94" s="59"/>
-      <c r="L94" s="59"/>
-      <c r="M94" s="60"/>
-    </row>
-    <row r="95" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="B95" s="62"/>
-      <c r="C95" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="62"/>
-      <c r="H95" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="I95" s="62"/>
-      <c r="J95" s="62"/>
-      <c r="K95" s="62"/>
-      <c r="L95" s="62"/>
-      <c r="M95" s="63"/>
-    </row>
-    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="45"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="47"/>
-      <c r="M96" s="48"/>
-    </row>
-    <row r="97" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="45"/>
-      <c r="B97" s="46"/>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="47"/>
-      <c r="I97" s="47"/>
-      <c r="J97" s="47"/>
-      <c r="K97" s="47"/>
-      <c r="L97" s="47"/>
-      <c r="M97" s="48"/>
-    </row>
-    <row r="98" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="45"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="50"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="47"/>
-      <c r="L98" s="47"/>
-      <c r="M98" s="48"/>
-    </row>
-    <row r="99" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="45"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="47"/>
-      <c r="K99" s="47"/>
-      <c r="L99" s="47"/>
-      <c r="M99" s="48"/>
-    </row>
-    <row r="100" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="B100" s="42"/>
-      <c r="C100" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="I100" s="44"/>
-      <c r="J100" s="44"/>
-      <c r="K100" s="44"/>
-      <c r="L100" s="44"/>
-      <c r="M100" s="49"/>
+      <c r="I100" s="138"/>
+      <c r="J100" s="138"/>
+      <c r="K100" s="138"/>
+      <c r="L100" s="138"/>
+      <c r="M100" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="280">
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="A55:M55"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="A96:B99"/>
+    <mergeCell ref="H96:M99"/>
+    <mergeCell ref="H100:M100"/>
+    <mergeCell ref="C96:G99"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H89:M89"/>
+    <mergeCell ref="H90:M93"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="A64:M64"/>
+    <mergeCell ref="A94:M94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:M95"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="A85:M85"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="H86:M86"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="H87:M87"/>
+    <mergeCell ref="A88:M88"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A76:M76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:M77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="G83:L84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="G78:L78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G81:L81"/>
+    <mergeCell ref="G82:L82"/>
+    <mergeCell ref="G79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A29:M29"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="K71:K73"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="D73:D74"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="G65:G68"/>
     <mergeCell ref="I65:I68"/>
@@ -4785,262 +5041,6 @@
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="D71:D72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="K71:K73"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A29:M29"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="E37:K37"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A76:M76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:M77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="G83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G81:L81"/>
-    <mergeCell ref="G82:L82"/>
-    <mergeCell ref="G79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="A85:M85"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="H86:M86"/>
-    <mergeCell ref="A87:G87"/>
-    <mergeCell ref="H87:M87"/>
-    <mergeCell ref="A88:M88"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="A64:M64"/>
-    <mergeCell ref="A94:M94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="H95:M95"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="A96:B99"/>
-    <mergeCell ref="H96:M99"/>
-    <mergeCell ref="H100:M100"/>
-    <mergeCell ref="C96:G99"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="H89:M89"/>
-    <mergeCell ref="H90:M93"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="A55:M55"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C89" r:id="rId1" xr:uid="{139DCBBA-98AA-4FC4-9DA9-E64F2CC0B6B5}"/>
@@ -5056,12 +5056,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5215,15 +5212,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6652D392-47DD-4BCC-96AF-AF4D4E14D27E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E220183-86F6-4482-87C6-ACE15A8F592F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0157d9ab-2bd2-4b26-9ac6-6cf31e8af793"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5247,17 +5255,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E220183-86F6-4482-87C6-ACE15A8F592F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6652D392-47DD-4BCC-96AF-AF4D4E14D27E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0157d9ab-2bd2-4b26-9ac6-6cf31e8af793"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>